--- a/Code/Dev/Config/SensorList.xlsx
+++ b/Code/Dev/Config/SensorList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/Code/Dev/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10482A015D75DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{861F5B07-5256-448F-B981-DAEC7DE6180A}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_F25DC773A252ABDACC10482A015D75DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C2DE80-509F-473E-8143-C11D738CC76A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>Sensor_Name</t>
   </si>
@@ -108,36 +108,24 @@
     <t>Net Force Wash Piston</t>
   </si>
   <si>
-    <t>NF_W</t>
-  </si>
-  <si>
     <t>Derived - Absolute value of Net Force</t>
   </si>
   <si>
     <t>Net Force Reservoir Piston</t>
   </si>
   <si>
-    <t>NF_R</t>
-  </si>
-  <si>
     <t>Derived- Absolute value of Net Force</t>
   </si>
   <si>
     <t>Delta Force Wash Piston</t>
   </si>
   <si>
-    <t>DR_W</t>
-  </si>
-  <si>
     <t>Derived- Absolute value of Delta Force</t>
   </si>
   <si>
     <t>Delta Force Reservoir Piston</t>
   </si>
   <si>
-    <t>DF_R</t>
-  </si>
-  <si>
     <t>Valve Actuator Current Sensor</t>
   </si>
   <si>
@@ -232,6 +220,96 @@
   </si>
   <si>
     <t>µCon_Pin</t>
+  </si>
+  <si>
+    <t>Package_Label</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NF_Wash</t>
+  </si>
+  <si>
+    <t>NF_Res</t>
+  </si>
+  <si>
+    <t>DR_Wash</t>
+  </si>
+  <si>
+    <t>DF_Res</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>WF1</t>
+  </si>
+  <si>
+    <t>WF2</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>WnF</t>
+  </si>
+  <si>
+    <t>RnF</t>
+  </si>
+  <si>
+    <t>WdF</t>
+  </si>
+  <si>
+    <t>RdF</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>WTL</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>IID</t>
+  </si>
+  <si>
+    <t>Instruction_ID</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Echo of Instruction ID to verify up to date Instructions are followed</t>
   </si>
 </sst>
 </file>
@@ -556,448 +634,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" customWidth="1"/>
-    <col min="7" max="7" width="47.3984375" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="54.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
         <v>9</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="H24" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
